--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3245.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3245.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.680987060776294</v>
+        <v>0.9235045313835144</v>
       </c>
       <c r="B1">
-        <v>2.286739796137461</v>
+        <v>0.7597807645797729</v>
       </c>
       <c r="C1">
-        <v>2.468370008954807</v>
+        <v>0.5873104333877563</v>
       </c>
       <c r="D1">
-        <v>2.967105644088337</v>
+        <v>0.5677320957183838</v>
       </c>
       <c r="E1">
-        <v>2.967216040125152</v>
+        <v>0.6123800277709961</v>
       </c>
     </row>
   </sheetData>
